--- a/Menu/makeSureWhatNeedToDo.xlsx
+++ b/Menu/makeSureWhatNeedToDo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruserxd/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruserxd/Desktop/college/2down/DB_CourseSelectionSystem/Menu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC008919-DCFC-624E-990B-B25543BB7358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88827BF-B88D-054D-B167-9736E83D7DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="740" windowWidth="28260" windowHeight="17200" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
   </bookViews>
@@ -685,7 +685,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -721,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">

--- a/Menu/makeSureWhatNeedToDo.xlsx
+++ b/Menu/makeSureWhatNeedToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruserxd/Desktop/college/2down/DB_CourseSelectionSystem/Menu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88827BF-B88D-054D-B167-9736E83D7DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1471932-AC60-AF41-A4DB-6B2092BAACED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="740" windowWidth="28260" windowHeight="17200" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
   </bookViews>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD11E25E-09B4-E24C-BF54-4E794C068EA7}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/Menu/makeSureWhatNeedToDo.xlsx
+++ b/Menu/makeSureWhatNeedToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruserxd/Desktop/college/2down/DB_CourseSelectionSystem/Menu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1471932-AC60-AF41-A4DB-6B2092BAACED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6282BC-A45B-DF4E-95A7-2863BF1CB98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="740" windowWidth="28260" windowHeight="17200" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
+    <workbookView xWindow="560" yWindow="740" windowWidth="28260" windowHeight="18380" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
   </bookViews>
   <sheets>
     <sheet name="功能表" sheetId="1" r:id="rId1"/>
@@ -685,7 +685,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -745,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16">

--- a/Menu/makeSureWhatNeedToDo.xlsx
+++ b/Menu/makeSureWhatNeedToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruserxd/Desktop/college/2down/DB_CourseSelectionSystem/Menu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6282BC-A45B-DF4E-95A7-2863BF1CB98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170140E7-BE43-FF43-84AA-8F461E19E618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="740" windowWidth="28260" windowHeight="18380" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
   </bookViews>
@@ -753,7 +753,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">

--- a/Menu/makeSureWhatNeedToDo.xlsx
+++ b/Menu/makeSureWhatNeedToDo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruserxd/Desktop/college/2down/DB_CourseSelectionSystem/Menu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9e3a679e5b315e6/桌面/DB/DB_CourseSelectionSystem/Menu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170140E7-BE43-FF43-84AA-8F461E19E618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{170140E7-BE43-FF43-84AA-8F461E19E618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73788B3B-B970-45D4-B262-18B695882BDD}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="740" windowWidth="28260" windowHeight="18380" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
   </bookViews>
   <sheets>
     <sheet name="功能表" sheetId="1" r:id="rId1"/>
@@ -684,24 +684,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD11E25E-09B4-E24C-BF54-4E794C068EA7}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="39.83203125" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50">
+    <row r="1" spans="1:3" ht="49.8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="35" thickBot="1">
+    <row r="2" spans="1:3" ht="33.6" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -748,7 +748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16">
+    <row r="8" spans="1:3">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
@@ -761,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -804,7 +804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16" thickBot="1">
+    <row r="15" spans="1:3" ht="16.8" thickBot="1">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>

--- a/Menu/makeSureWhatNeedToDo.xlsx
+++ b/Menu/makeSureWhatNeedToDo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9e3a679e5b315e6/桌面/DB/DB_CourseSelectionSystem/Menu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack9\Desktop\DB\DB_CourseSelectionSystem\Menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{170140E7-BE43-FF43-84AA-8F461E19E618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73788B3B-B970-45D4-B262-18B695882BDD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD8855B-D54F-4B17-9581-988D747E6C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
   </bookViews>
   <sheets>
     <sheet name="功能表" sheetId="1" r:id="rId1"/>
@@ -685,23 +685,23 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" customWidth="1"/>
+    <col min="1" max="1" width="39.75" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="49.8">
+    <row r="1" spans="1:3" ht="50.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="33.6" thickBot="1">
+    <row r="2" spans="1:3" ht="33" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -777,7 +777,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -804,7 +804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.8" thickBot="1">
+    <row r="15" spans="1:3" ht="17.25" thickBot="1">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>

--- a/Menu/makeSureWhatNeedToDo.xlsx
+++ b/Menu/makeSureWhatNeedToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack9\Desktop\DB\DB_CourseSelectionSystem\Menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD8855B-D54F-4B17-9581-988D747E6C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1386E13C-7195-42D6-BA92-DFF1C543909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
   </bookViews>
@@ -685,7 +685,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5"/>
@@ -769,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">

--- a/Menu/makeSureWhatNeedToDo.xlsx
+++ b/Menu/makeSureWhatNeedToDo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack9\Desktop\DB\DB_CourseSelectionSystem\Menu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruserxd/Desktop/college/2down/DB_CourseSelectionSystem/Menu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1386E13C-7195-42D6-BA92-DFF1C543909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF57291A-78E7-464C-9988-AA2B380CCBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
   </bookViews>
   <sheets>
     <sheet name="功能表" sheetId="1" r:id="rId1"/>
@@ -685,23 +685,23 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.75" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50.25">
+    <row r="1" spans="1:3" ht="50">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="33" thickBot="1">
+    <row r="2" spans="1:3" ht="35" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -748,7 +748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
@@ -785,7 +785,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -804,7 +804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.25" thickBot="1">
+    <row r="15" spans="1:3" ht="16" thickBot="1">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>

--- a/Menu/makeSureWhatNeedToDo.xlsx
+++ b/Menu/makeSureWhatNeedToDo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruserxd/Desktop/college/2down/DB_CourseSelectionSystem/Menu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DB\Menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF57291A-78E7-464C-9988-AA2B380CCBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF650AA9-00B6-4ECA-9C21-18E085488161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
   </bookViews>
   <sheets>
     <sheet name="功能表" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>database_SelectedSystem</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +138,30 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可選課列表：列出該同學可選的課程清單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關注抽籤功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立一個historyTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分(評分在history,在選課可以查看評分)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索分類-&gt;你依照course的column列出相關課程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>複製seletectedcourse就好了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,7 +333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +368,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,26 +707,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD11E25E-09B4-E24C-BF54-4E794C068EA7}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="1" max="1" width="39.625" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50">
+    <row r="1" spans="1:3" ht="50.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="35" thickBot="1">
+    <row r="2" spans="1:3" ht="33" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -748,7 +773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16">
+    <row r="8" spans="1:3">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
@@ -804,16 +829,45 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16" thickBot="1">
+    <row r="15" spans="1:3" ht="17.25" thickBot="1">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Menu/makeSureWhatNeedToDo.xlsx
+++ b/Menu/makeSureWhatNeedToDo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruserxd/Desktop/college/2down/DB_CourseSelectionSystem/Menu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF57291A-78E7-464C-9988-AA2B380CCBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBF3157-A436-41B3-8710-9B0D8ED4AEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
   </bookViews>
   <sheets>
     <sheet name="功能表" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>database_SelectedSystem</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +138,34 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可選課列表：列出該同學可選的課程清單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關注抽籤功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立一個historyTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分(評分在history,在選課可以查看評分)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索分類-&gt;你依照course的column列出相關課程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>複製seletectedcourse就好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必修課預選進功課表中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +372,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,26 +711,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD11E25E-09B4-E24C-BF54-4E794C068EA7}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="1" max="1" width="39.625" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50">
+    <row r="1" spans="1:3" ht="50.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="35" thickBot="1">
+    <row r="2" spans="1:3" ht="33" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -748,7 +777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16">
+    <row r="8" spans="1:3">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
@@ -804,16 +833,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16" thickBot="1">
+    <row r="15" spans="1:3" ht="17.25" thickBot="1">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Menu/makeSureWhatNeedToDo.xlsx
+++ b/Menu/makeSureWhatNeedToDo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DB\Menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBF3157-A436-41B3-8710-9B0D8ED4AEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9EA767-B206-4A15-B48A-C12E768D6DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>database_SelectedSystem</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,10 +162,6 @@
   </si>
   <si>
     <t>複製seletectedcourse就好了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必修課預選進功課表中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD11E25E-09B4-E24C-BF54-4E794C068EA7}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5"/>
@@ -870,9 +866,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="A21" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Menu/makeSureWhatNeedToDo.xlsx
+++ b/Menu/makeSureWhatNeedToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DB\Menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9EA767-B206-4A15-B48A-C12E768D6DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB22AB97-7D2D-4997-A9DE-AA4DA5ADA07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
+    <workbookView xWindow="-240" yWindow="2475" windowWidth="24060" windowHeight="11295" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
   </bookViews>
   <sheets>
     <sheet name="功能表" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>database_SelectedSystem</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,37 @@
   </si>
   <si>
     <t>複製seletectedcourse就好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢語</t>
+  </si>
+  <si>
+    <t>漢語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X 林茂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10個系所導入資料Course, CourseTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcard 搜尋系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家加油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遲到、和尚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,6 +402,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -707,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD11E25E-09B4-E24C-BF54-4E794C068EA7}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5"/>
@@ -826,7 +860,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" thickBot="1">
@@ -841,16 +875,25 @@
       <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="B16" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="12" t="s">
@@ -864,9 +907,25 @@
       <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Menu/makeSureWhatNeedToDo.xlsx
+++ b/Menu/makeSureWhatNeedToDo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DB\Menu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack9\Desktop\DB\Menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB22AB97-7D2D-4997-A9DE-AA4DA5ADA07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98602645-EEB2-4A53-BAF7-6323FC8AED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="2475" windowWidth="24060" windowHeight="11295" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
+    <workbookView xWindow="6225" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{E2764C23-5740-1D4B-8AA3-216805C741EA}"/>
   </bookViews>
   <sheets>
     <sheet name="功能表" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>database_SelectedSystem</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,18 +161,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>複製seletectedcourse就好了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>漢語</t>
   </si>
   <si>
     <t>漢語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X 林茂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -364,7 +356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,12 +391,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD11E25E-09B4-E24C-BF54-4E794C068EA7}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5"/>
@@ -860,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" thickBot="1">
@@ -872,59 +858,59 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="12" t="s">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Menu/makeSureWhatNeedToDo.xlsx
+++ b/Menu/makeSureWhatNeedToDo.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\flask\Menu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AEA336-42C0-483B-A7F2-0F04EEC4D4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="功能表" sheetId="1" r:id="rId4"/>
+    <sheet name="功能表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -42,33 +51,37 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF1D2125"/>
         <rFont val="PMingLiU"/>
-        <color rgb="FF1D2125"/>
-        <sz val="12.0"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>加選後學分不可超過最高學分限制</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF1D2125"/>
         <rFont val="Roboto"/>
-        <color rgb="FF1D2125"/>
-        <sz val="12.0"/>
       </rPr>
       <t> (30 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF1D2125"/>
         <rFont val="PMingLiU"/>
-        <color rgb="FF1D2125"/>
-        <sz val="12.0"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>學分</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF1D2125"/>
         <rFont val="Roboto"/>
-        <color rgb="FF1D2125"/>
-        <sz val="12.0"/>
       </rPr>
       <t>)</t>
     </r>
@@ -101,9 +114,6 @@
     <t>關注抽籤功能</t>
   </si>
   <si>
-    <t>漢語</t>
-  </si>
-  <si>
     <t>評分(評分在history,在選課可以查看評分)</t>
   </si>
   <si>
@@ -123,47 +133,80 @@
   </si>
   <si>
     <t>dcard 搜尋系統</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos narrow"/>
+      <name val="aptos narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="36.0"/>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="PMingLiu"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="PMingLiu"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="PMingLiu"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1D2125"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos narrow"/>
+      <name val="aptos narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1D2125"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="aptos narrow"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="aptos narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -171,7 +214,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -187,110 +230,145 @@
     </fill>
   </fills>
   <borders count="8">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FFFFC000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FFFFC000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FFFFC000"/>
       </right>
       <top style="medium">
         <color rgb="FFFFC000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FFFFC000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FFFFC000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FFFFC000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FFFFC000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FFFFC000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FFFFC000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -480,39 +558,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.78"/>
-    <col customWidth="1" min="2" max="2" width="37.33"/>
-    <col customWidth="1" min="3" max="26" width="8.89"/>
+    <col min="1" max="1" width="30.796875" customWidth="1"/>
+    <col min="2" max="2" width="37.296875" customWidth="1"/>
+    <col min="3" max="26" width="8.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -520,7 +600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -528,7 +608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -536,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:3" ht="16.5" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -544,7 +624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:3" ht="16.5" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -552,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
+    <row r="8" spans="1:3" ht="16.5" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -560,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
+    <row r="9" spans="1:3" ht="16.5" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -568,7 +648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
+    <row r="10" spans="1:3" ht="16.5" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -576,7 +656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
+    <row r="11" spans="1:3" ht="16.5" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -584,7 +664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
+    <row r="12" spans="1:3" ht="16.5" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -592,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
+    <row r="13" spans="1:3" ht="16.5" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -600,7 +680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" ht="16.5" customHeight="1">
+    <row r="14" spans="1:3" ht="16.5" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -608,7 +688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
+    <row r="15" spans="1:3" ht="16.5" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
@@ -616,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="16.5" customHeight="1">
+    <row r="16" spans="1:3" ht="16.5" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -624,64 +704,64 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" ht="16.5" customHeight="1">
+    <row r="17" spans="1:2" ht="16.5" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
+    <row r="19" spans="1:2" ht="16.5" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" ht="16.5" customHeight="1">
+    <row r="20" spans="1:2" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="10" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="10" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="16.5" customHeight="1"/>
-    <row r="24" ht="16.5" customHeight="1"/>
-    <row r="25" ht="16.5" customHeight="1"/>
-    <row r="26" ht="16.5" customHeight="1"/>
-    <row r="27" ht="16.5" customHeight="1"/>
-    <row r="28" ht="16.5" customHeight="1"/>
-    <row r="29" ht="16.5" customHeight="1"/>
-    <row r="30" ht="16.5" customHeight="1"/>
-    <row r="31" ht="16.5" customHeight="1"/>
-    <row r="32" ht="16.5" customHeight="1"/>
+    <row r="23" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="25" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="29" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="30" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="31" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="32" spans="1:2" ht="16.5" customHeight="1"/>
     <row r="33" ht="16.5" customHeight="1"/>
     <row r="34" ht="16.5" customHeight="1"/>
     <row r="35" ht="16.5" customHeight="1"/>
@@ -1651,9 +1731,8 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Menu/makeSureWhatNeedToDo.xlsx
+++ b/Menu/makeSureWhatNeedToDo.xlsx
@@ -650,14 +650,14 @@
     <col min="3" max="3" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="48.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="34.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="35.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -709,7 +709,7 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -790,7 +790,7 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -808,7 +808,7 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
